--- a/natmiOut/OldD2/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/F13a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -85,19 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>F13a1</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H2">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I2">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J2">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>18.59547768490619</v>
+        <v>37.09036800940875</v>
       </c>
       <c r="R2">
-        <v>18.59547768490619</v>
+        <v>148.361472037635</v>
       </c>
       <c r="S2">
-        <v>0.0001114021023912345</v>
+        <v>0.0001915957772434015</v>
       </c>
       <c r="T2">
-        <v>0.0001114021023912345</v>
+        <v>9.940746388934258E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H3">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I3">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J3">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>12.58416036378307</v>
+        <v>26.76561969054</v>
       </c>
       <c r="R3">
-        <v>12.58416036378307</v>
+        <v>160.59371814324</v>
       </c>
       <c r="S3">
-        <v>7.538940085910187E-05</v>
+        <v>0.0001382617639897623</v>
       </c>
       <c r="T3">
-        <v>7.538940085910187E-05</v>
+        <v>0.0001076035039146129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H4">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I4">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J4">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>9.493847171966767</v>
+        <v>19.0507558191975</v>
       </c>
       <c r="R4">
-        <v>9.493847171966767</v>
+        <v>114.304534915185</v>
       </c>
       <c r="S4">
-        <v>5.687590029465327E-05</v>
+        <v>9.840949454390661E-05</v>
       </c>
       <c r="T4">
-        <v>5.687590029465327E-05</v>
+        <v>7.65881045187187E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H5">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I5">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J5">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>8.926583051393184</v>
+        <v>17.9472989953625</v>
       </c>
       <c r="R5">
-        <v>8.926583051393184</v>
+        <v>107.683793972175</v>
       </c>
       <c r="S5">
-        <v>5.347752480176091E-05</v>
+        <v>9.270942524927002E-05</v>
       </c>
       <c r="T5">
-        <v>5.347752480176091E-05</v>
+        <v>7.215197256900333E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H6">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I6">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J6">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>13.1156194926779</v>
+        <v>27.43472588187</v>
       </c>
       <c r="R6">
-        <v>13.1156194926779</v>
+        <v>164.60835529122</v>
       </c>
       <c r="S6">
-        <v>7.857327520194574E-05</v>
+        <v>0.0001417181309029653</v>
       </c>
       <c r="T6">
-        <v>7.857327520194574E-05</v>
+        <v>0.0001102934536154045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.112992866267799</v>
+        <v>0.2253675</v>
       </c>
       <c r="H7">
-        <v>0.112992866267799</v>
+        <v>0.450735</v>
       </c>
       <c r="I7">
-        <v>0.0004701916967448585</v>
+        <v>0.0008255714740055148</v>
       </c>
       <c r="J7">
-        <v>0.0004701916967448585</v>
+        <v>0.000550551464194694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>15.76971795715947</v>
+        <v>31.53077579970375</v>
       </c>
       <c r="R7">
-        <v>15.76971795715947</v>
+        <v>126.123103198815</v>
       </c>
       <c r="S7">
-        <v>9.447349319616209E-05</v>
+        <v>0.0001628768820762093</v>
       </c>
       <c r="T7">
-        <v>9.447349319616209E-05</v>
+        <v>8.450696568761202E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H8">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I8">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J8">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>24721.91962578143</v>
+        <v>20.60633602567383</v>
       </c>
       <c r="R8">
-        <v>24721.91962578143</v>
+        <v>123.638016154043</v>
       </c>
       <c r="S8">
-        <v>0.1481044944435407</v>
+        <v>0.0001064450739872995</v>
       </c>
       <c r="T8">
-        <v>0.1481044944435407</v>
+        <v>8.28418689662585E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H9">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I9">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J9">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>16730.12150281628</v>
+        <v>14.87020439211467</v>
       </c>
       <c r="R9">
-        <v>16730.12150281628</v>
+        <v>133.831839529032</v>
       </c>
       <c r="S9">
-        <v>0.1002270950096293</v>
+        <v>7.681423833682981E-05</v>
       </c>
       <c r="T9">
-        <v>0.1002270950096293</v>
+        <v>8.967209324973353E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H10">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I10">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J10">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>12621.67773809457</v>
+        <v>10.584049094737</v>
       </c>
       <c r="R10">
-        <v>12621.67773809457</v>
+        <v>95.256441852633</v>
       </c>
       <c r="S10">
-        <v>0.07561416058000393</v>
+        <v>5.467346973138811E-05</v>
       </c>
       <c r="T10">
-        <v>0.07561416058000393</v>
+        <v>6.382520457393962E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H11">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I11">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J11">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>11867.52351667369</v>
+        <v>9.971000389046111</v>
       </c>
       <c r="R11">
-        <v>11867.52351667369</v>
+        <v>89.739003501415</v>
       </c>
       <c r="S11">
-        <v>0.07109616070836289</v>
+        <v>5.150667604454435E-05</v>
       </c>
       <c r="T11">
-        <v>0.07109616070836289</v>
+        <v>6.012832460822154E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H12">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I12">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J12">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>17436.67446647531</v>
+        <v>15.24194044531066</v>
       </c>
       <c r="R12">
-        <v>17436.67446647531</v>
+        <v>137.177464007796</v>
       </c>
       <c r="S12">
-        <v>0.1044599244607524</v>
+        <v>7.873449585553156E-05</v>
       </c>
       <c r="T12">
-        <v>0.1044599244607524</v>
+        <v>9.191378066353639E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>150.219349322044</v>
+        <v>0.1252076666666667</v>
       </c>
       <c r="H13">
-        <v>150.219349322044</v>
+        <v>0.375623</v>
       </c>
       <c r="I13">
-        <v>0.625100442838924</v>
+        <v>0.0004586636401734551</v>
       </c>
       <c r="J13">
-        <v>0.625100442838924</v>
+        <v>0.0004588057120818298</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>20965.18876600751</v>
+        <v>17.51758734542783</v>
       </c>
       <c r="R13">
-        <v>20965.18876600751</v>
+        <v>105.105524072567</v>
       </c>
       <c r="S13">
-        <v>0.1255986076366347</v>
+        <v>9.048968621786187E-05</v>
       </c>
       <c r="T13">
-        <v>0.1255986076366347</v>
+        <v>7.042444002014019E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H14">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I14">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J14">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>14808.20048135333</v>
+        <v>29160.34871978258</v>
       </c>
       <c r="R14">
-        <v>14808.20048135333</v>
+        <v>174962.0923186955</v>
       </c>
       <c r="S14">
-        <v>0.0887132180311062</v>
+        <v>0.1506320906882917</v>
       </c>
       <c r="T14">
-        <v>0.0887132180311062</v>
+        <v>0.1172308257346123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H15">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I15">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J15">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>10021.18755506119</v>
+        <v>21043.05904107602</v>
       </c>
       <c r="R15">
-        <v>10021.18755506119</v>
+        <v>189387.5313696842</v>
       </c>
       <c r="S15">
-        <v>0.06003509998545777</v>
+        <v>0.1087010312631842</v>
       </c>
       <c r="T15">
-        <v>0.06003509998545777</v>
+        <v>0.126896383051173</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H16">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I16">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J16">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>7560.267858885202</v>
+        <v>14977.65357632217</v>
       </c>
       <c r="R16">
-        <v>7560.267858885202</v>
+        <v>134798.8821868995</v>
       </c>
       <c r="S16">
-        <v>0.04529218062541735</v>
+        <v>0.07736928297691492</v>
       </c>
       <c r="T16">
-        <v>0.04529218062541735</v>
+        <v>0.09032004623086219</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H17">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I17">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J17">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>7108.536477434833</v>
+        <v>14110.11875509608</v>
       </c>
       <c r="R17">
-        <v>7108.536477434833</v>
+        <v>126991.0687958647</v>
       </c>
       <c r="S17">
-        <v>0.04258594062113311</v>
+        <v>0.07288790365179298</v>
       </c>
       <c r="T17">
-        <v>0.04258594062113311</v>
+        <v>0.0850885335135502</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>26</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>89.9799964813195</v>
+        <v>177.1833293333333</v>
       </c>
       <c r="H18">
-        <v>89.9799964813195</v>
+        <v>531.549988</v>
       </c>
       <c r="I18">
-        <v>0.3744293654643312</v>
+        <v>0.6490620979818499</v>
       </c>
       <c r="J18">
-        <v>0.3744293654643312</v>
+        <v>0.6492631461636483</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>10444.40622476539</v>
+        <v>21569.10854980019</v>
       </c>
       <c r="R18">
-        <v>10444.40622476539</v>
+        <v>194121.9769482017</v>
       </c>
       <c r="S18">
-        <v>0.06257052555371506</v>
+        <v>0.1114184177411763</v>
       </c>
       <c r="T18">
-        <v>0.06257052555371506</v>
+        <v>0.1300686300059831</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>177.1833293333333</v>
+      </c>
+      <c r="H19">
+        <v>531.549988</v>
+      </c>
+      <c r="I19">
+        <v>0.6490620979818499</v>
+      </c>
+      <c r="J19">
+        <v>0.6492631461636483</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.9082645</v>
+      </c>
+      <c r="N19">
+        <v>279.816529</v>
+      </c>
+      <c r="O19">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P19">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q19">
+        <v>24789.41210535861</v>
+      </c>
+      <c r="R19">
+        <v>148736.4726321517</v>
+      </c>
+      <c r="S19">
+        <v>0.12805337166049</v>
+      </c>
+      <c r="T19">
+        <v>0.09965872762746754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H20">
+        <v>284.79747</v>
+      </c>
+      <c r="I20">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J20">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>164.5772705</v>
+      </c>
+      <c r="N20">
+        <v>329.154541</v>
+      </c>
+      <c r="O20">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P20">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q20">
+        <v>15623.73008596854</v>
+      </c>
+      <c r="R20">
+        <v>93742.38051581127</v>
+      </c>
+      <c r="S20">
+        <v>0.08070668666600746</v>
+      </c>
+      <c r="T20">
+        <v>0.0628107296189582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H21">
+        <v>284.79747</v>
+      </c>
+      <c r="I21">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J21">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>118.764328</v>
+      </c>
+      <c r="N21">
+        <v>356.292984</v>
+      </c>
+      <c r="O21">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P21">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q21">
+        <v>11274.59338021672</v>
+      </c>
+      <c r="R21">
+        <v>101471.3404219505</v>
+      </c>
+      <c r="S21">
+        <v>0.05824057828808708</v>
+      </c>
+      <c r="T21">
+        <v>0.06798940769635561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H22">
+        <v>284.79747</v>
+      </c>
+      <c r="I22">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J22">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N22">
+        <v>253.595871</v>
+      </c>
+      <c r="O22">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P22">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q22">
+        <v>8024.82916258293</v>
+      </c>
+      <c r="R22">
+        <v>72223.46246324637</v>
+      </c>
+      <c r="S22">
+        <v>0.04145344096506581</v>
+      </c>
+      <c r="T22">
+        <v>0.04839228903685459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H23">
+        <v>284.79747</v>
+      </c>
+      <c r="I23">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J23">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N23">
+        <v>238.907105</v>
+      </c>
+      <c r="O23">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P23">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q23">
+        <v>7560.015452113816</v>
+      </c>
+      <c r="R23">
+        <v>68040.13906902434</v>
+      </c>
+      <c r="S23">
+        <v>0.03905237705251233</v>
+      </c>
+      <c r="T23">
+        <v>0.04558931355044881</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>89.9799964813195</v>
-      </c>
-      <c r="H19">
-        <v>89.9799964813195</v>
-      </c>
-      <c r="I19">
-        <v>0.3744293654643312</v>
-      </c>
-      <c r="J19">
-        <v>0.3744293654643312</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N19">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O19">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P19">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q19">
-        <v>12557.95355198444</v>
-      </c>
-      <c r="R19">
-        <v>12557.95355198444</v>
-      </c>
-      <c r="S19">
-        <v>0.07523240064750164</v>
-      </c>
-      <c r="T19">
-        <v>0.07523240064750164</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H24">
+        <v>284.79747</v>
+      </c>
+      <c r="I24">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J24">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>121.733284</v>
+      </c>
+      <c r="N24">
+        <v>365.199852</v>
+      </c>
+      <c r="O24">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P24">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q24">
+        <v>11556.44376599716</v>
+      </c>
+      <c r="R24">
+        <v>104007.9938939744</v>
+      </c>
+      <c r="S24">
+        <v>0.05969651810826512</v>
+      </c>
+      <c r="T24">
+        <v>0.06968905575832705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>94.93248999999999</v>
+      </c>
+      <c r="H25">
+        <v>284.79747</v>
+      </c>
+      <c r="I25">
+        <v>0.347758908007205</v>
+      </c>
+      <c r="J25">
+        <v>0.3478666269702695</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>139.9082645</v>
+      </c>
+      <c r="N25">
+        <v>279.816529</v>
+      </c>
+      <c r="O25">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P25">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q25">
+        <v>13281.8399205636</v>
+      </c>
+      <c r="R25">
+        <v>79691.03952338162</v>
+      </c>
+      <c r="S25">
+        <v>0.0686093069272673</v>
+      </c>
+      <c r="T25">
+        <v>0.05339583130932524</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.467038</v>
+      </c>
+      <c r="I26">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J26">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>164.5772705</v>
+      </c>
+      <c r="N26">
+        <v>329.154541</v>
+      </c>
+      <c r="O26">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P26">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q26">
+        <v>80.48036991992633</v>
+      </c>
+      <c r="R26">
+        <v>482.882219519558</v>
+      </c>
+      <c r="S26">
+        <v>0.0004157332443758236</v>
+      </c>
+      <c r="T26">
+        <v>0.0003235482645219328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G27">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.467038</v>
+      </c>
+      <c r="I27">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J27">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>118.764328</v>
+      </c>
+      <c r="N27">
+        <v>356.292984</v>
+      </c>
+      <c r="O27">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P27">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q27">
+        <v>58.07726074015467</v>
+      </c>
+      <c r="R27">
+        <v>522.695346661392</v>
+      </c>
+      <c r="S27">
+        <v>0.0003000066731302027</v>
+      </c>
+      <c r="T27">
+        <v>0.0003502244759689971</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G28">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.467038</v>
+      </c>
+      <c r="I28">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J28">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N28">
+        <v>253.595871</v>
+      </c>
+      <c r="O28">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P28">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q28">
+        <v>41.33719771112201</v>
+      </c>
+      <c r="R28">
+        <v>372.034779400098</v>
+      </c>
+      <c r="S28">
+        <v>0.0002135334036728213</v>
+      </c>
+      <c r="T28">
+        <v>0.0002492765364946855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G29">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.467038</v>
+      </c>
+      <c r="I29">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J29">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N29">
+        <v>238.907105</v>
+      </c>
+      <c r="O29">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P29">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q29">
+        <v>38.94286683388778</v>
+      </c>
+      <c r="R29">
+        <v>350.48580150499</v>
+      </c>
+      <c r="S29">
+        <v>0.0002011651336873308</v>
+      </c>
+      <c r="T29">
+        <v>0.000234837954748767</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G30">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.467038</v>
+      </c>
+      <c r="I30">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J30">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>121.733284</v>
+      </c>
+      <c r="N30">
+        <v>365.199852</v>
+      </c>
+      <c r="O30">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P30">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q30">
+        <v>59.52911783093067</v>
+      </c>
+      <c r="R30">
+        <v>535.7620604783759</v>
+      </c>
+      <c r="S30">
+        <v>0.0003075064554910305</v>
+      </c>
+      <c r="T30">
+        <v>0.0003589796390451946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G31">
+        <v>0.4890126666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.467038</v>
+      </c>
+      <c r="I31">
+        <v>0.001791362587894739</v>
+      </c>
+      <c r="J31">
+        <v>0.001791917465759827</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>68.41691351185034</v>
+      </c>
+      <c r="R31">
+        <v>410.501481071102</v>
+      </c>
+      <c r="S31">
+        <v>0.0003534176775375301</v>
+      </c>
+      <c r="T31">
+        <v>0.00027505059498025</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.0282255</v>
+      </c>
+      <c r="H32">
+        <v>0.056451</v>
+      </c>
+      <c r="I32">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J32">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>4.64527574849775</v>
+      </c>
+      <c r="R32">
+        <v>18.581102993991</v>
+      </c>
+      <c r="S32">
+        <v>2.399585836726071E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.244999998672674E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.0282255</v>
+      </c>
+      <c r="H33">
+        <v>0.056451</v>
+      </c>
+      <c r="I33">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J33">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>3.352182539964</v>
+      </c>
+      <c r="R33">
+        <v>20.113095239784</v>
+      </c>
+      <c r="S33">
+        <v>1.731619430260812E-05</v>
+      </c>
+      <c r="T33">
+        <v>1.347648928857048E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.0282255</v>
+      </c>
+      <c r="H34">
+        <v>0.056451</v>
+      </c>
+      <c r="I34">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J34">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>2.3859567523035</v>
+      </c>
+      <c r="R34">
+        <v>14.315740513821</v>
+      </c>
+      <c r="S34">
+        <v>1.232501220561543E-05</v>
+      </c>
+      <c r="T34">
+        <v>9.592055394380711E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.0282255</v>
+      </c>
+      <c r="H35">
+        <v>0.056451</v>
+      </c>
+      <c r="I35">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J35">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>2.2477574973925</v>
+      </c>
+      <c r="R35">
+        <v>13.486544984355</v>
+      </c>
+      <c r="S35">
+        <v>1.161112353100279E-05</v>
+      </c>
+      <c r="T35">
+        <v>9.036464892881198E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.0282255</v>
+      </c>
+      <c r="H36">
+        <v>0.056451</v>
+      </c>
+      <c r="I36">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J36">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>3.435982807542</v>
+      </c>
+      <c r="R36">
+        <v>20.615896845252</v>
+      </c>
+      <c r="S36">
+        <v>1.774907696895802E-05</v>
+      </c>
+      <c r="T36">
+        <v>1.381338425026501E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.0282255</v>
+      </c>
+      <c r="H37">
+        <v>0.056451</v>
+      </c>
+      <c r="I37">
+        <v>0.0001033963088712554</v>
+      </c>
+      <c r="J37">
+        <v>6.895222404573569E-05</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>3.94898071964475</v>
+      </c>
+      <c r="R37">
+        <v>15.795922878579</v>
+      </c>
+      <c r="S37">
+        <v>2.039904349581038E-05</v>
+      </c>
+      <c r="T37">
+        <v>1.058383023291155E-05</v>
       </c>
     </row>
   </sheetData>
